--- a/results/mp/tinybert/corona/confidence/42/topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/topk-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,106 +43,124 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
 </sst>
 </file>
@@ -500,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -569,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.84</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -611,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -619,37 +637,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="C4">
+        <v>176</v>
+      </c>
+      <c r="D4">
+        <v>176</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>116</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -669,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7077922077922078</v>
+        <v>0.2209302325581395</v>
       </c>
       <c r="C5">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D5">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3776824034334764</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,119 +755,71 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="L6">
+        <v>54</v>
+      </c>
+      <c r="M6">
+        <v>54</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L7">
+        <v>69</v>
+      </c>
+      <c r="M7">
+        <v>69</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K6">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L6">
-        <v>22</v>
-      </c>
-      <c r="M6">
-        <v>22</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.2625</v>
-      </c>
-      <c r="C7">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>59</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>0.9</v>
-      </c>
-      <c r="L7">
-        <v>36</v>
-      </c>
-      <c r="M7">
-        <v>36</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C8">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>67</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L8">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -861,21 +831,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -887,21 +857,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -913,21 +883,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.803921568627451</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -939,21 +909,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7647058823529411</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -965,21 +935,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7435897435897436</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -991,21 +961,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.72</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1017,21 +987,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6923076923076923</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1043,21 +1013,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6896551724137931</v>
+        <v>0.71875</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1069,21 +1039,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.684931506849315</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1095,47 +1065,47 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L18">
+        <v>35</v>
+      </c>
+      <c r="M18">
+        <v>35</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>16</v>
-      </c>
-      <c r="M18">
-        <v>16</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>8</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6551724137931034</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1147,21 +1117,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6363636363636364</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1173,21 +1143,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5774647887323944</v>
+        <v>0.62</v>
       </c>
       <c r="L21">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1199,21 +1169,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5666666666666667</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1225,21 +1195,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5600000000000001</v>
+        <v>0.566579634464752</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1251,21 +1221,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1277,21 +1247,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4857142857142857</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1303,21 +1273,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4791666666666667</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="L26">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="M26">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1329,21 +1299,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>75</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4728682170542636</v>
+        <v>0.4338983050847458</v>
       </c>
       <c r="L27">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="M27">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1355,21 +1325,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>68</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4239130434782609</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1381,21 +1351,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.4054054054054054</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1407,33 +1377,241 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.3305439330543933</v>
+      </c>
+      <c r="L30">
+        <v>79</v>
+      </c>
+      <c r="M30">
+        <v>79</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.02833333333333333</v>
+      </c>
+      <c r="L31">
+        <v>34</v>
+      </c>
+      <c r="M31">
+        <v>34</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K30">
-        <v>0.03070175438596491</v>
-      </c>
-      <c r="L30">
-        <v>14</v>
-      </c>
-      <c r="M30">
-        <v>14</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>442</v>
+      <c r="K32">
+        <v>0.0157035175879397</v>
+      </c>
+      <c r="L32">
+        <v>25</v>
+      </c>
+      <c r="M32">
+        <v>27</v>
+      </c>
+      <c r="N32">
+        <v>0.93</v>
+      </c>
+      <c r="O32">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33">
+        <v>0.01261092947220925</v>
+      </c>
+      <c r="L33">
+        <v>27</v>
+      </c>
+      <c r="M33">
+        <v>29</v>
+      </c>
+      <c r="N33">
+        <v>0.93</v>
+      </c>
+      <c r="O33">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34">
+        <v>0.01235955056179775</v>
+      </c>
+      <c r="L34">
+        <v>33</v>
+      </c>
+      <c r="M34">
+        <v>36</v>
+      </c>
+      <c r="N34">
+        <v>0.92</v>
+      </c>
+      <c r="O34">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35">
+        <v>0.01064265247646336</v>
+      </c>
+      <c r="L35">
+        <v>26</v>
+      </c>
+      <c r="M35">
+        <v>28</v>
+      </c>
+      <c r="N35">
+        <v>0.93</v>
+      </c>
+      <c r="O35">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36">
+        <v>0.009613458842379331</v>
+      </c>
+      <c r="L36">
+        <v>48</v>
+      </c>
+      <c r="M36">
+        <v>51</v>
+      </c>
+      <c r="N36">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>4945</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37">
+        <v>0.006392870980240217</v>
+      </c>
+      <c r="L37">
+        <v>33</v>
+      </c>
+      <c r="M37">
+        <v>36</v>
+      </c>
+      <c r="N37">
+        <v>0.92</v>
+      </c>
+      <c r="O37">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>5129</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38">
+        <v>0.006008782066096603</v>
+      </c>
+      <c r="L38">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <v>27</v>
+      </c>
+      <c r="N38">
+        <v>0.96</v>
+      </c>
+      <c r="O38">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>4301</v>
       </c>
     </row>
   </sheetData>
